--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -19,21 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Sold by</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Total Price</t>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>Soldby</t>
+  </si>
+  <si>
+    <t>Giỏ quà Tết Giáp Thìn</t>
+  </si>
+  <si>
+    <t>Sold by:
+Inhouse product</t>
+  </si>
+  <si>
+    <t>Price:</t>
+  </si>
+  <si>
+    <t>Quantity:</t>
+  </si>
+  <si>
+    <t>Total Price:</t>
   </si>
 </sst>
 </file>
@@ -49,12 +65,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -69,8 +91,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,15 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -367,17 +410,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>Quantity</t>
   </si>
   <si>
     <t>TotalPrice</t>
@@ -43,19 +40,26 @@
 Inhouse product</t>
   </si>
   <si>
-    <t>Price:</t>
-  </si>
-  <si>
-    <t>Quantity:</t>
-  </si>
-  <si>
-    <t>Total Price:</t>
+    <t>$5,000,000.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Sold by:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +81,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -91,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +116,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,49 +470,49 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375"/>
+    <col min="5" max="5" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB7284-E53C-4F73-9E09-968DD90B0056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -40,26 +41,16 @@
 Inhouse product</t>
   </si>
   <si>
-    <t>$5,000,000.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Sold by:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,9 +72,6 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -98,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -107,84 +95,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,56 +382,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="31.28515625"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125"/>
-    <col min="4" max="4" customWidth="true" width="20.7109375"/>
-    <col min="5" max="5" customWidth="true" width="18.0"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s" s="0">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Inhouse product</t>
+  </si>
+  <si>
+    <t>$5,000,000.00</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -60,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +81,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -86,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -101,6 +113,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,44 +433,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="31.33203125"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625"/>
+    <col min="4" max="4" customWidth="true" width="20.6640625"/>
+    <col min="5" max="5" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5000000</v>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +113,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -457,19 +472,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="20" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +113,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -472,19 +487,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +113,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -487,19 +562,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/testdata/ProductInfo.xlsx
+++ b/src/test/resources/testdata/ProductInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +113,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -562,19 +607,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="65" t="s">
         <v>8</v>
       </c>
     </row>
